--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value1376.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value1376.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.254670233563685</v>
+        <v>1.231460213661194</v>
       </c>
       <c r="B1">
-        <v>2.553062771369993</v>
+        <v>2.530009269714355</v>
       </c>
       <c r="C1">
-        <v>3.44912031441443</v>
+        <v>7.638636112213135</v>
       </c>
       <c r="D1">
-        <v>3.152655638636432</v>
+        <v>2.191313505172729</v>
       </c>
       <c r="E1">
-        <v>1.102696665857367</v>
+        <v>1.150243997573853</v>
       </c>
     </row>
   </sheetData>
